--- a/public/src/assets/excel/CM3D_Report_Inventory.xlsx
+++ b/public/src/assets/excel/CM3D_Report_Inventory.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="210">
   <si>
     <t>REPORT NAME</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Customer Markets</t>
   </si>
   <si>
-    <t>Customer Market Operations</t>
-  </si>
-  <si>
     <t>Connections &amp; Billing</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>The purpose of this report is to track the performance of the automated backdate solution implemented in SAP by the Improvements team in 2017. The solution automates backdated move-ins, move-outs and product swaps, and this report measures various aspects of the solution, as well as providing visibility to Customer Solutions leadership of CSRs still following the old, incorrect process.</t>
+  </si>
+  <si>
+    <t>Customer Market Operations</t>
   </si>
   <si>
     <t>Improvements &amp; CS</t>
@@ -551,7 +551,7 @@
     <t>ORG UNIT L3 TYPE</t>
   </si>
   <si>
-    <t>C&amp;I</t>
+    <t xml:space="preserve">C&amp;I Customers </t>
   </si>
   <si>
     <t>Business Energy Solutions</t>
@@ -624,6 +624,24 @@
   </si>
   <si>
     <t>Southern Phone &amp; MultiProduct Retailer</t>
+  </si>
+  <si>
+    <t>Product &amp; Portfolio  1</t>
+  </si>
+  <si>
+    <t>Product &amp; Portfolio 2</t>
+  </si>
+  <si>
+    <t>Southern Phone &amp; MultiProduct Retailer2</t>
+  </si>
+  <si>
+    <t>Southern Phone &amp; MultiProduct Retailer 3</t>
+  </si>
+  <si>
+    <t>Product &amp; Portfolio 3</t>
+  </si>
+  <si>
+    <t>Product &amp; Portfolio 4</t>
   </si>
 </sst>
 </file>
@@ -897,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -931,9 +949,6 @@
     <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -945,6 +960,9 @@
     </xf>
     <xf borderId="8" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -991,6 +1009,9 @@
     <xf borderId="13" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="13" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="14" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1002,7 +1023,7 @@
     </xf>
     <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1386,2688 +1407,2685 @@
       <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+    </row>
+    <row r="3" ht="12.0" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+    </row>
+    <row r="4" ht="12.0" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-    </row>
-    <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+    </row>
+    <row r="5" ht="12.0" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="F5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="I5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6" ht="12.0" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="K6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7" ht="12.0" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+    </row>
+    <row r="8" ht="12.0" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="N8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="P8" s="11"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+    </row>
+    <row r="9" ht="12.0" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="P9" s="11"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" ht="12.0" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+    </row>
+    <row r="11" ht="12.0" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+    </row>
+    <row r="12" ht="12.0" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" ht="12.0" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" ht="12.0" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+    </row>
+    <row r="15" ht="12.0" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16" ht="12.0" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-    </row>
-    <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="P16" s="11"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+    </row>
+    <row r="17" ht="12.0" customHeight="1">
+      <c r="A17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+    </row>
+    <row r="18" ht="12.0" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+    </row>
+    <row r="19" ht="12.0" customHeight="1">
+      <c r="A19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+    </row>
+    <row r="20" ht="12.0" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+    </row>
+    <row r="21" ht="12.0" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+    </row>
+    <row r="22" ht="12.0" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+    </row>
+    <row r="23" ht="12.0" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+    </row>
+    <row r="24" ht="12.0" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+    </row>
+    <row r="25" ht="12.0" customHeight="1">
+      <c r="A25" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+    </row>
+    <row r="26" ht="12.0" customHeight="1">
+      <c r="A26" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+    </row>
+    <row r="27" ht="12.0" customHeight="1">
+      <c r="A27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="J27" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="K27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+    </row>
+    <row r="28" ht="12.0" customHeight="1">
+      <c r="A28" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="D28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="N28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="P28" s="11"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+    </row>
+    <row r="29" ht="12.0" customHeight="1">
+      <c r="A29" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-    </row>
-    <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="P29" s="11"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" ht="12.0" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E30" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="J30" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="K30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+    </row>
+    <row r="31" ht="12.0" customHeight="1">
+      <c r="A31" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="14" t="s">
+      <c r="D31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="N31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-    </row>
-    <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="P31" s="11"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+    </row>
+    <row r="32" ht="12.0" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="J32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="K32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="L32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+    </row>
+    <row r="33" ht="12.0" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="D33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="M33" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-    </row>
-    <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="N33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+    </row>
+    <row r="34" ht="12.0" customHeight="1">
+      <c r="A34" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+    </row>
+    <row r="35" ht="12.0" customHeight="1">
+      <c r="A35" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="E35" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-    </row>
-    <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-    </row>
-    <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-    </row>
-    <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-    </row>
-    <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-    </row>
-    <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-    </row>
-    <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-    </row>
-    <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-    </row>
-    <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-    </row>
-    <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-    </row>
-    <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-    </row>
-    <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-    </row>
-    <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-    </row>
-    <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-    </row>
-    <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-    </row>
-    <row r="23" ht="12.0" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-    </row>
-    <row r="24" ht="12.0" customHeight="1">
-      <c r="A24" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-    </row>
-    <row r="25" ht="12.0" customHeight="1">
-      <c r="A25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-    </row>
-    <row r="26" ht="12.0" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-    </row>
-    <row r="27" ht="12.0" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-    </row>
-    <row r="28" ht="12.0" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-    </row>
-    <row r="29" ht="12.0" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-    </row>
-    <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-    </row>
-    <row r="31" ht="12.0" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-    </row>
-    <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-    </row>
-    <row r="33" ht="12.0" customHeight="1">
-      <c r="A33" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-    </row>
-    <row r="34" ht="12.0" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-    </row>
-    <row r="35" ht="12.0" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="M35" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="O35" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>126</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J36" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K36" s="14" t="s">
+      <c r="K36" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L36" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M36" s="14" t="s">
+      <c r="L36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="N36" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="O36" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P36" s="12" t="s">
+      <c r="O36" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
     </row>
     <row r="37" ht="12.0" customHeight="1">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>131</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="J37" s="15" t="s">
+      <c r="J37" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L37" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M37" s="14" t="s">
+      <c r="L37" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="N37" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="O37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P37" s="12" t="s">
+      <c r="O37" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
     </row>
     <row r="38" ht="12.0" customHeight="1">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="J38" s="15" t="s">
+      <c r="J38" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L38" s="14" t="s">
+      <c r="L38" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="M38" s="14" t="s">
+      <c r="M38" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="N38" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="O38" s="14" t="s">
+      <c r="O38" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P38" s="12" t="s">
+      <c r="P38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
     </row>
     <row r="39" ht="12.0" customHeight="1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="J39" s="15" t="s">
+      <c r="J39" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L39" s="14" t="s">
+      <c r="L39" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="M39" s="14" t="s">
+      <c r="M39" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N39" s="14" t="s">
+      <c r="N39" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="O39" s="14" t="s">
+      <c r="O39" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P39" s="12" t="s">
+      <c r="P39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
     </row>
     <row r="40" ht="12.0" customHeight="1">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="J40" s="15" t="s">
+      <c r="J40" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L40" s="14" t="s">
+      <c r="L40" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="M40" s="14" t="s">
+      <c r="M40" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N40" s="14" t="s">
+      <c r="N40" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="O40" s="14" t="s">
+      <c r="O40" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P40" s="12" t="s">
+      <c r="P40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
     </row>
     <row r="41" ht="12.0" customHeight="1">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J41" s="15" t="s">
+      <c r="J41" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L41" s="14" t="s">
+      <c r="L41" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="M41" s="14" t="s">
+      <c r="M41" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="N41" s="14" t="s">
+      <c r="N41" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="O41" s="14" t="s">
+      <c r="O41" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P41" s="12" t="s">
+      <c r="P41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
     </row>
     <row r="42" ht="12.0" customHeight="1">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="J42" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L42" s="14" t="s">
+      <c r="L42" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="M42" s="14" t="s">
+      <c r="M42" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="N42" s="14" t="s">
+      <c r="N42" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="O42" s="14" t="s">
+      <c r="O42" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P42" s="12" t="s">
+      <c r="P42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
     </row>
     <row r="43" ht="12.0" customHeight="1">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="J43" s="15" t="s">
+      <c r="J43" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L43" s="14" t="s">
+      <c r="L43" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="M43" s="14" t="s">
+      <c r="M43" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N43" s="14" t="s">
+      <c r="N43" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="O43" s="14" t="s">
+      <c r="O43" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P43" s="12" t="s">
+      <c r="P43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
     </row>
     <row r="44" ht="12.0" customHeight="1">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L44" s="14" t="s">
+      <c r="L44" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="M44" s="14" t="s">
+      <c r="M44" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N44" s="14" t="s">
+      <c r="N44" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="O44" s="14" t="s">
+      <c r="O44" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P44" s="12" t="s">
+      <c r="P44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
     </row>
     <row r="45" ht="12.0" customHeight="1">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="J45" s="15" t="s">
+      <c r="J45" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L45" s="14" t="s">
+      <c r="L45" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="M45" s="14" t="s">
+      <c r="M45" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N45" s="14" t="s">
+      <c r="N45" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="O45" s="14" t="s">
+      <c r="O45" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P45" s="12" t="s">
+      <c r="P45" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
     </row>
     <row r="46" ht="12.0" customHeight="1">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="K46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L46" s="14" t="s">
+      <c r="L46" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="M46" s="14" t="s">
+      <c r="M46" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N46" s="14" t="s">
+      <c r="N46" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="O46" s="14" t="s">
+      <c r="O46" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P46" s="12" t="s">
+      <c r="P46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="J47" s="15" t="s">
+      <c r="J47" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="K47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L47" s="14" t="s">
+      <c r="L47" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="M47" s="14" t="s">
+      <c r="M47" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N47" s="14" t="s">
+      <c r="N47" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="O47" s="14" t="s">
+      <c r="O47" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P47" s="12" t="s">
+      <c r="P47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="18" t="s">
@@ -4083,7 +4101,7 @@
         <v>19</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>114</v>
@@ -4118,16 +4136,16 @@
       <c r="P48" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="22"/>
@@ -4146,16 +4164,16 @@
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="22"/>
@@ -4174,16 +4192,16 @@
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="22"/>
@@ -4202,16 +4220,16 @@
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="22"/>
@@ -4230,16 +4248,16 @@
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="13"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="22"/>
@@ -4258,16 +4276,16 @@
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="13"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="22"/>
@@ -4286,16 +4304,16 @@
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
       <c r="P54" s="22"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="13"/>
-      <c r="Y54" s="13"/>
-      <c r="Z54" s="13"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
     </row>
     <row r="55" ht="12.0" customHeight="1">
       <c r="A55" s="22"/>
@@ -4314,16 +4332,16 @@
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
     </row>
     <row r="56" ht="12.0" customHeight="1">
       <c r="A56" s="22"/>
@@ -4342,16 +4360,16 @@
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
     </row>
     <row r="57" ht="12.0" customHeight="1">
       <c r="A57" s="22"/>
@@ -4370,16 +4388,16 @@
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
     </row>
     <row r="58" ht="12.0" customHeight="1">
       <c r="A58" s="22"/>
@@ -4398,16 +4416,16 @@
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
       <c r="P58" s="22"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" s="22"/>
@@ -4426,16 +4444,16 @@
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
       <c r="P59" s="22"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
-      <c r="Y59" s="13"/>
-      <c r="Z59" s="13"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="A60" s="22"/>
@@ -4454,16 +4472,16 @@
       <c r="N60" s="22"/>
       <c r="O60" s="22"/>
       <c r="P60" s="22"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13"/>
-      <c r="X60" s="13"/>
-      <c r="Y60" s="13"/>
-      <c r="Z60" s="13"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="A61" s="22"/>
@@ -4482,16 +4500,16 @@
       <c r="N61" s="22"/>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="13"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="A62" s="22"/>
@@ -4510,16 +4528,16 @@
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
       <c r="P62" s="22"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="13"/>
-      <c r="Y62" s="13"/>
-      <c r="Z62" s="13"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
     </row>
     <row r="63" ht="12.0" customHeight="1">
       <c r="A63" s="22"/>
@@ -4538,16 +4556,16 @@
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="13"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="13"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
     </row>
     <row r="64" ht="12.0" customHeight="1">
       <c r="A64" s="22"/>
@@ -4566,16 +4584,16 @@
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="A65" s="22"/>
@@ -4594,16 +4612,16 @@
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
       <c r="P65" s="22"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="13"/>
-      <c r="X65" s="13"/>
-      <c r="Y65" s="13"/>
-      <c r="Z65" s="13"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
     </row>
     <row r="66" ht="12.0" customHeight="1">
       <c r="A66" s="22"/>
@@ -4622,16 +4640,16 @@
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
       <c r="P66" s="22"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="13"/>
-      <c r="V66" s="13"/>
-      <c r="W66" s="13"/>
-      <c r="X66" s="13"/>
-      <c r="Y66" s="13"/>
-      <c r="Z66" s="13"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
     </row>
     <row r="67" ht="12.0" customHeight="1">
       <c r="A67" s="22"/>
@@ -4650,16 +4668,16 @@
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
       <c r="P67" s="22"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="13"/>
-      <c r="V67" s="13"/>
-      <c r="W67" s="13"/>
-      <c r="X67" s="13"/>
-      <c r="Y67" s="13"/>
-      <c r="Z67" s="13"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
     </row>
     <row r="68" ht="12.0" customHeight="1">
       <c r="A68" s="22"/>
@@ -4678,16 +4696,16 @@
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
       <c r="P68" s="22"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="13"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="13"/>
-      <c r="X68" s="13"/>
-      <c r="Y68" s="13"/>
-      <c r="Z68" s="13"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
     </row>
     <row r="69" ht="12.0" customHeight="1">
       <c r="A69" s="22"/>
@@ -4706,16 +4724,16 @@
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
       <c r="P69" s="22"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="13"/>
-      <c r="W69" s="13"/>
-      <c r="X69" s="13"/>
-      <c r="Y69" s="13"/>
-      <c r="Z69" s="13"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
     </row>
     <row r="70" ht="12.0" customHeight="1">
       <c r="A70" s="22"/>
@@ -4734,16 +4752,16 @@
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
-      <c r="U70" s="13"/>
-      <c r="V70" s="13"/>
-      <c r="W70" s="13"/>
-      <c r="X70" s="13"/>
-      <c r="Y70" s="13"/>
-      <c r="Z70" s="13"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
     </row>
     <row r="71" ht="12.0" customHeight="1">
       <c r="A71" s="22"/>
@@ -4762,16 +4780,16 @@
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
       <c r="P71" s="22"/>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="13"/>
-      <c r="T71" s="13"/>
-      <c r="U71" s="13"/>
-      <c r="V71" s="13"/>
-      <c r="W71" s="13"/>
-      <c r="X71" s="13"/>
-      <c r="Y71" s="13"/>
-      <c r="Z71" s="13"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
     </row>
     <row r="72" ht="12.0" customHeight="1">
       <c r="A72" s="22"/>
@@ -4790,16 +4808,16 @@
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="13"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="13"/>
-      <c r="X72" s="13"/>
-      <c r="Y72" s="13"/>
-      <c r="Z72" s="13"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
     </row>
     <row r="73" ht="12.0" customHeight="1">
       <c r="A73" s="22"/>
@@ -4818,16 +4836,16 @@
       <c r="N73" s="22"/>
       <c r="O73" s="22"/>
       <c r="P73" s="22"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="13"/>
-      <c r="W73" s="13"/>
-      <c r="X73" s="13"/>
-      <c r="Y73" s="13"/>
-      <c r="Z73" s="13"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
     </row>
     <row r="74" ht="12.0" customHeight="1">
       <c r="A74" s="22"/>
@@ -4846,16 +4864,16 @@
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
       <c r="P74" s="22"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="13"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="13"/>
-      <c r="Y74" s="13"/>
-      <c r="Z74" s="13"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
     </row>
     <row r="75" ht="12.0" customHeight="1">
       <c r="A75" s="22"/>
@@ -4874,16 +4892,16 @@
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="P75" s="22"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="13"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="13"/>
-      <c r="X75" s="13"/>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="13"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="12"/>
     </row>
     <row r="76" ht="12.0" customHeight="1">
       <c r="A76" s="22"/>
@@ -4902,16 +4920,16 @@
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="22"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
-      <c r="U76" s="13"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="13"/>
-      <c r="Y76" s="13"/>
-      <c r="Z76" s="13"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="12"/>
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="A77" s="22"/>
@@ -4930,16 +4948,16 @@
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
       <c r="P77" s="22"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="13"/>
-      <c r="V77" s="13"/>
-      <c r="W77" s="13"/>
-      <c r="X77" s="13"/>
-      <c r="Y77" s="13"/>
-      <c r="Z77" s="13"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="12"/>
     </row>
     <row r="78" ht="12.0" customHeight="1">
       <c r="A78" s="22"/>
@@ -4958,16 +4976,16 @@
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
       <c r="P78" s="22"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="13"/>
-      <c r="X78" s="13"/>
-      <c r="Y78" s="13"/>
-      <c r="Z78" s="13"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="12"/>
     </row>
     <row r="79" ht="12.0" customHeight="1">
       <c r="A79" s="22"/>
@@ -4986,16 +5004,16 @@
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
       <c r="P79" s="22"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
-      <c r="U79" s="13"/>
-      <c r="V79" s="13"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="13"/>
-      <c r="Y79" s="13"/>
-      <c r="Z79" s="13"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="12"/>
     </row>
     <row r="80" ht="12.0" customHeight="1">
       <c r="A80" s="22"/>
@@ -5014,16 +5032,16 @@
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
       <c r="P80" s="22"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
-      <c r="T80" s="13"/>
-      <c r="U80" s="13"/>
-      <c r="V80" s="13"/>
-      <c r="W80" s="13"/>
-      <c r="X80" s="13"/>
-      <c r="Y80" s="13"/>
-      <c r="Z80" s="13"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="12"/>
     </row>
     <row r="81" ht="12.0" customHeight="1">
       <c r="A81" s="22"/>
@@ -5042,16 +5060,16 @@
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
       <c r="P81" s="22"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="13"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="13"/>
-      <c r="Y81" s="13"/>
-      <c r="Z81" s="13"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="12"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="12"/>
     </row>
     <row r="82" ht="12.0" customHeight="1">
       <c r="A82" s="22"/>
@@ -5070,16 +5088,16 @@
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
       <c r="P82" s="22"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="13"/>
-      <c r="U82" s="13"/>
-      <c r="V82" s="13"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="13"/>
-      <c r="Y82" s="13"/>
-      <c r="Z82" s="13"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="12"/>
     </row>
     <row r="83" ht="12.0" customHeight="1">
       <c r="A83" s="22"/>
@@ -5098,16 +5116,16 @@
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
       <c r="P83" s="22"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="13"/>
-      <c r="U83" s="13"/>
-      <c r="V83" s="13"/>
-      <c r="W83" s="13"/>
-      <c r="X83" s="13"/>
-      <c r="Y83" s="13"/>
-      <c r="Z83" s="13"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="12"/>
     </row>
     <row r="84" ht="12.0" customHeight="1">
       <c r="A84" s="22"/>
@@ -5126,16 +5144,16 @@
       <c r="N84" s="22"/>
       <c r="O84" s="22"/>
       <c r="P84" s="22"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
-      <c r="U84" s="13"/>
-      <c r="V84" s="13"/>
-      <c r="W84" s="13"/>
-      <c r="X84" s="13"/>
-      <c r="Y84" s="13"/>
-      <c r="Z84" s="13"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="12"/>
     </row>
     <row r="85" ht="12.0" customHeight="1">
       <c r="A85" s="22"/>
@@ -5154,16 +5172,16 @@
       <c r="N85" s="22"/>
       <c r="O85" s="22"/>
       <c r="P85" s="22"/>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="13"/>
-      <c r="U85" s="13"/>
-      <c r="V85" s="13"/>
-      <c r="W85" s="13"/>
-      <c r="X85" s="13"/>
-      <c r="Y85" s="13"/>
-      <c r="Z85" s="13"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="12"/>
     </row>
     <row r="86" ht="12.0" customHeight="1">
       <c r="A86" s="22"/>
@@ -5182,16 +5200,16 @@
       <c r="N86" s="22"/>
       <c r="O86" s="22"/>
       <c r="P86" s="22"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="13"/>
-      <c r="U86" s="13"/>
-      <c r="V86" s="13"/>
-      <c r="W86" s="13"/>
-      <c r="X86" s="13"/>
-      <c r="Y86" s="13"/>
-      <c r="Z86" s="13"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="12"/>
     </row>
     <row r="87" ht="12.0" customHeight="1">
       <c r="A87" s="22"/>
@@ -5210,16 +5228,16 @@
       <c r="N87" s="22"/>
       <c r="O87" s="22"/>
       <c r="P87" s="22"/>
-      <c r="Q87" s="13"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="13"/>
-      <c r="T87" s="13"/>
-      <c r="U87" s="13"/>
-      <c r="V87" s="13"/>
-      <c r="W87" s="13"/>
-      <c r="X87" s="13"/>
-      <c r="Y87" s="13"/>
-      <c r="Z87" s="13"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="12"/>
     </row>
     <row r="88" ht="12.0" customHeight="1">
       <c r="A88" s="22"/>
@@ -5238,16 +5256,16 @@
       <c r="N88" s="22"/>
       <c r="O88" s="22"/>
       <c r="P88" s="22"/>
-      <c r="Q88" s="13"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="13"/>
-      <c r="U88" s="13"/>
-      <c r="V88" s="13"/>
-      <c r="W88" s="13"/>
-      <c r="X88" s="13"/>
-      <c r="Y88" s="13"/>
-      <c r="Z88" s="13"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="12"/>
     </row>
     <row r="89" ht="12.0" customHeight="1">
       <c r="A89" s="22"/>
@@ -5266,16 +5284,16 @@
       <c r="N89" s="22"/>
       <c r="O89" s="22"/>
       <c r="P89" s="22"/>
-      <c r="Q89" s="13"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
-      <c r="T89" s="13"/>
-      <c r="U89" s="13"/>
-      <c r="V89" s="13"/>
-      <c r="W89" s="13"/>
-      <c r="X89" s="13"/>
-      <c r="Y89" s="13"/>
-      <c r="Z89" s="13"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="12"/>
     </row>
     <row r="90" ht="12.0" customHeight="1">
       <c r="A90" s="22"/>
@@ -5294,16 +5312,16 @@
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
       <c r="P90" s="22"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="13"/>
-      <c r="U90" s="13"/>
-      <c r="V90" s="13"/>
-      <c r="W90" s="13"/>
-      <c r="X90" s="13"/>
-      <c r="Y90" s="13"/>
-      <c r="Z90" s="13"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="12"/>
     </row>
     <row r="91" ht="12.0" customHeight="1">
       <c r="A91" s="22"/>
@@ -5322,16 +5340,16 @@
       <c r="N91" s="22"/>
       <c r="O91" s="22"/>
       <c r="P91" s="22"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
-      <c r="U91" s="13"/>
-      <c r="V91" s="13"/>
-      <c r="W91" s="13"/>
-      <c r="X91" s="13"/>
-      <c r="Y91" s="13"/>
-      <c r="Z91" s="13"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
+      <c r="Z91" s="12"/>
     </row>
     <row r="92" ht="12.0" customHeight="1">
       <c r="A92" s="22"/>
@@ -5350,16 +5368,16 @@
       <c r="N92" s="22"/>
       <c r="O92" s="22"/>
       <c r="P92" s="22"/>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="13"/>
-      <c r="U92" s="13"/>
-      <c r="V92" s="13"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="13"/>
-      <c r="Y92" s="13"/>
-      <c r="Z92" s="13"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="12"/>
     </row>
     <row r="93" ht="12.0" customHeight="1">
       <c r="A93" s="22"/>
@@ -5378,16 +5396,16 @@
       <c r="N93" s="22"/>
       <c r="O93" s="22"/>
       <c r="P93" s="22"/>
-      <c r="Q93" s="13"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="13"/>
-      <c r="T93" s="13"/>
-      <c r="U93" s="13"/>
-      <c r="V93" s="13"/>
-      <c r="W93" s="13"/>
-      <c r="X93" s="13"/>
-      <c r="Y93" s="13"/>
-      <c r="Z93" s="13"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="12"/>
     </row>
     <row r="94" ht="12.0" customHeight="1">
       <c r="A94" s="22"/>
@@ -5406,16 +5424,16 @@
       <c r="N94" s="22"/>
       <c r="O94" s="22"/>
       <c r="P94" s="22"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="13"/>
-      <c r="T94" s="13"/>
-      <c r="U94" s="13"/>
-      <c r="V94" s="13"/>
-      <c r="W94" s="13"/>
-      <c r="X94" s="13"/>
-      <c r="Y94" s="13"/>
-      <c r="Z94" s="13"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="12"/>
     </row>
     <row r="95" ht="12.0" customHeight="1">
       <c r="A95" s="22"/>
@@ -5434,16 +5452,16 @@
       <c r="N95" s="22"/>
       <c r="O95" s="22"/>
       <c r="P95" s="22"/>
-      <c r="Q95" s="13"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="13"/>
-      <c r="T95" s="13"/>
-      <c r="U95" s="13"/>
-      <c r="V95" s="13"/>
-      <c r="W95" s="13"/>
-      <c r="X95" s="13"/>
-      <c r="Y95" s="13"/>
-      <c r="Z95" s="13"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="12"/>
     </row>
     <row r="96" ht="12.0" customHeight="1">
       <c r="A96" s="22"/>
@@ -5462,16 +5480,16 @@
       <c r="N96" s="22"/>
       <c r="O96" s="22"/>
       <c r="P96" s="22"/>
-      <c r="Q96" s="13"/>
-      <c r="R96" s="13"/>
-      <c r="S96" s="13"/>
-      <c r="T96" s="13"/>
-      <c r="U96" s="13"/>
-      <c r="V96" s="13"/>
-      <c r="W96" s="13"/>
-      <c r="X96" s="13"/>
-      <c r="Y96" s="13"/>
-      <c r="Z96" s="13"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
     </row>
     <row r="97" ht="12.0" customHeight="1">
       <c r="A97" s="22"/>
@@ -5490,16 +5508,16 @@
       <c r="N97" s="22"/>
       <c r="O97" s="22"/>
       <c r="P97" s="22"/>
-      <c r="Q97" s="13"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="13"/>
-      <c r="T97" s="13"/>
-      <c r="U97" s="13"/>
-      <c r="V97" s="13"/>
-      <c r="W97" s="13"/>
-      <c r="X97" s="13"/>
-      <c r="Y97" s="13"/>
-      <c r="Z97" s="13"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="12"/>
     </row>
     <row r="98" ht="12.0" customHeight="1">
       <c r="A98" s="22"/>
@@ -5518,16 +5536,16 @@
       <c r="N98" s="22"/>
       <c r="O98" s="22"/>
       <c r="P98" s="22"/>
-      <c r="Q98" s="13"/>
-      <c r="R98" s="13"/>
-      <c r="S98" s="13"/>
-      <c r="T98" s="13"/>
-      <c r="U98" s="13"/>
-      <c r="V98" s="13"/>
-      <c r="W98" s="13"/>
-      <c r="X98" s="13"/>
-      <c r="Y98" s="13"/>
-      <c r="Z98" s="13"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
     </row>
     <row r="99" ht="12.0" customHeight="1">
       <c r="A99" s="22"/>
@@ -5546,16 +5564,16 @@
       <c r="N99" s="22"/>
       <c r="O99" s="22"/>
       <c r="P99" s="22"/>
-      <c r="Q99" s="13"/>
-      <c r="R99" s="13"/>
-      <c r="S99" s="13"/>
-      <c r="T99" s="13"/>
-      <c r="U99" s="13"/>
-      <c r="V99" s="13"/>
-      <c r="W99" s="13"/>
-      <c r="X99" s="13"/>
-      <c r="Y99" s="13"/>
-      <c r="Z99" s="13"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="12"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="12"/>
     </row>
     <row r="100" ht="12.0" customHeight="1">
       <c r="A100" s="22"/>
@@ -5574,16 +5592,16 @@
       <c r="N100" s="22"/>
       <c r="O100" s="22"/>
       <c r="P100" s="22"/>
-      <c r="Q100" s="13"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="13"/>
-      <c r="T100" s="13"/>
-      <c r="U100" s="13"/>
-      <c r="V100" s="13"/>
-      <c r="W100" s="13"/>
-      <c r="X100" s="13"/>
-      <c r="Y100" s="13"/>
-      <c r="Z100" s="13"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="12"/>
+      <c r="X100" s="12"/>
+      <c r="Y100" s="12"/>
+      <c r="Z100" s="12"/>
     </row>
     <row r="101" ht="12.0" customHeight="1">
       <c r="A101" s="22"/>
@@ -5602,16 +5620,16 @@
       <c r="N101" s="22"/>
       <c r="O101" s="22"/>
       <c r="P101" s="22"/>
-      <c r="Q101" s="13"/>
-      <c r="R101" s="13"/>
-      <c r="S101" s="13"/>
-      <c r="T101" s="13"/>
-      <c r="U101" s="13"/>
-      <c r="V101" s="13"/>
-      <c r="W101" s="13"/>
-      <c r="X101" s="13"/>
-      <c r="Y101" s="13"/>
-      <c r="Z101" s="13"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="12"/>
     </row>
     <row r="102" ht="12.0" customHeight="1">
       <c r="A102" s="22"/>
@@ -5630,16 +5648,16 @@
       <c r="N102" s="22"/>
       <c r="O102" s="22"/>
       <c r="P102" s="22"/>
-      <c r="Q102" s="13"/>
-      <c r="R102" s="13"/>
-      <c r="S102" s="13"/>
-      <c r="T102" s="13"/>
-      <c r="U102" s="13"/>
-      <c r="V102" s="13"/>
-      <c r="W102" s="13"/>
-      <c r="X102" s="13"/>
-      <c r="Y102" s="13"/>
-      <c r="Z102" s="13"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
     </row>
     <row r="103" ht="12.0" customHeight="1">
       <c r="A103" s="22"/>
@@ -5658,16 +5676,16 @@
       <c r="N103" s="22"/>
       <c r="O103" s="22"/>
       <c r="P103" s="22"/>
-      <c r="Q103" s="13"/>
-      <c r="R103" s="13"/>
-      <c r="S103" s="13"/>
-      <c r="T103" s="13"/>
-      <c r="U103" s="13"/>
-      <c r="V103" s="13"/>
-      <c r="W103" s="13"/>
-      <c r="X103" s="13"/>
-      <c r="Y103" s="13"/>
-      <c r="Z103" s="13"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="12"/>
     </row>
     <row r="104" ht="12.0" customHeight="1">
       <c r="A104" s="22"/>
@@ -5686,16 +5704,16 @@
       <c r="N104" s="22"/>
       <c r="O104" s="22"/>
       <c r="P104" s="22"/>
-      <c r="Q104" s="13"/>
-      <c r="R104" s="13"/>
-      <c r="S104" s="13"/>
-      <c r="T104" s="13"/>
-      <c r="U104" s="13"/>
-      <c r="V104" s="13"/>
-      <c r="W104" s="13"/>
-      <c r="X104" s="13"/>
-      <c r="Y104" s="13"/>
-      <c r="Z104" s="13"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="12"/>
     </row>
     <row r="105" ht="12.0" customHeight="1">
       <c r="A105" s="22"/>
@@ -5714,16 +5732,16 @@
       <c r="N105" s="22"/>
       <c r="O105" s="22"/>
       <c r="P105" s="22"/>
-      <c r="Q105" s="13"/>
-      <c r="R105" s="13"/>
-      <c r="S105" s="13"/>
-      <c r="T105" s="13"/>
-      <c r="U105" s="13"/>
-      <c r="V105" s="13"/>
-      <c r="W105" s="13"/>
-      <c r="X105" s="13"/>
-      <c r="Y105" s="13"/>
-      <c r="Z105" s="13"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="12"/>
     </row>
     <row r="106" ht="12.0" customHeight="1">
       <c r="A106" s="22"/>
@@ -5742,16 +5760,16 @@
       <c r="N106" s="22"/>
       <c r="O106" s="22"/>
       <c r="P106" s="22"/>
-      <c r="Q106" s="13"/>
-      <c r="R106" s="13"/>
-      <c r="S106" s="13"/>
-      <c r="T106" s="13"/>
-      <c r="U106" s="13"/>
-      <c r="V106" s="13"/>
-      <c r="W106" s="13"/>
-      <c r="X106" s="13"/>
-      <c r="Y106" s="13"/>
-      <c r="Z106" s="13"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12"/>
+      <c r="Z106" s="12"/>
     </row>
     <row r="107" ht="12.0" customHeight="1">
       <c r="A107" s="24"/>
@@ -30838,334 +30856,662 @@
       <c r="A2" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>21</v>
+      <c r="E2" s="34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="31" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>21</v>
+      <c r="E3" s="34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="31" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>21</v>
+      <c r="E4" s="34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>21</v>
+      <c r="E5" s="34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>21</v>
+      <c r="E6" s="34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>21</v>
+      <c r="E7" s="34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="31" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>21</v>
+      <c r="E8" s="34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="31" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>21</v>
+      <c r="E9" s="34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>21</v>
+      <c r="E10" s="34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="31" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>21</v>
+      <c r="E11" s="34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="31" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>21</v>
+      <c r="E12" s="34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="31" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>21</v>
+      <c r="E13" s="34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="30" t="s">
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="32" t="s">
+      <c r="C19" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="32" t="s">
+      <c r="E19" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="32" t="s">
+      <c r="E20" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="32" t="s">
+      <c r="E21" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" s="32" t="s">
+      <c r="E22" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="30" t="s">
+      <c r="E23" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C24" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D24" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="31" t="s">
+      <c r="E24" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D25" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="31" t="s">
+      <c r="E25" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D26" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="31" t="s">
+      <c r="E26" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D27" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="31" t="s">
+      <c r="E27" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D28" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
+      <c r="E28" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
     <row r="52" ht="14.25" customHeight="1"/>
@@ -32118,9 +32464,18 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="B43:B49"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A6:A9"/>
@@ -32128,7 +32483,6 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
